--- a/xlsx/午餐_intext.xlsx
+++ b/xlsx/午餐_intext.xlsx
@@ -29,7 +29,7 @@
     <t>中国菜</t>
   </si>
   <si>
-    <t>政策_政策_美國_午餐</t>
+    <t>政策_政策_美国_午餐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A4%90</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B4%E6%9C%83</t>
   </si>
   <si>
-    <t>宴會</t>
+    <t>宴会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Boodle_fight</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%B2%E9%A3%9F</t>
   </si>
   <si>
-    <t>進食</t>
+    <t>进食</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E7%89%A9</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A4%90%E6%A1%8C%E7%A6%AE%E5%84%80</t>
   </si>
   <si>
-    <t>餐桌禮儀</t>
+    <t>餐桌礼仪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%90%83</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>中國大陸</t>
+    <t>中国大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E7%8F%AD%E6%97%8F</t>
@@ -275,13 +275,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E7%94%9F</t>
   </si>
   <si>
-    <t>學生</t>
+    <t>学生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%BF%E7%95%B6</t>
   </si>
   <si>
-    <t>便當</t>
+    <t>便当</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E8%82%86</t>
